--- a/model/SFC/CV/Transmission_Warning_CV/Transmission_Warning_CV[CV410].xlsx
+++ b/model/SFC/CV/Transmission_Warning_CV/Transmission_Warning_CV[CV410].xlsx
@@ -17,6 +17,7 @@
     <sheet name="Outputs" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Configs" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="DependentOn" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ManualTC" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.0.0</t>
+          <t>15.0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +519,128 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DependentName</t>
+          <t>TCName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>InputSignal</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>InputData</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TCName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VehicleType</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>InputData</t>
+          <t>RunnableOpt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ConfigOpt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CycleOption</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CyclePeriod(ms)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CycleDelta(%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CycleDuration(ms)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CycleMode</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PreconditionSignal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PreconditionValue</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>InputSignal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>InputValue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>InitSignal</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>InitValue</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OutputSignal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OutputValue</t>
         </is>
       </c>
     </row>
@@ -624,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +926,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -993,7 +1105,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1012,286 +1124,25 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>IMG_TelltaleATMRangeInhibit_stat</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ConfigTMType == ATM_ALLISON &amp;&amp; ConfigVehicleType != FCEV &amp;&amp; Input_ATMRangeInhibitStatus == ON</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>D’</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Telltale.ATMRangeInhibit.Stat</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0x2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ATM_ALLISON</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Config.Inter_ConfigVehicleType</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>!FCEV</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_ATMRangeInhibitStatus</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>ConfigTMType == ATM_ZF &amp;&amp; ConfigVehicleTypeCV == TRUCK &amp;&amp; Input_PressBrakePedalStatus == ON</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>D’</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ATM_ZF</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_PressBrakePedalStatus</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ON3SEC</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ConfigTMType == ATM_ZF &amp;&amp; ConfigVehicleTypeCV == TRUCK &amp;&amp; Input_LeverPosUnsuitStatus == ON</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>D’</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Telltale.ATMRangeInhibit.Stat</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0xC8</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Telltale.ATMRangeInhibit.StatOptional</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0x2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ATM_ZF</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_LeverPosUnsuitStatus</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Telltale.ATMRangeInhibit.Stat</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0x1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="17">
     <mergeCell ref="C9:C15"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D9:D15"/>
     <mergeCell ref="E9:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F2:F7"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C16:C28"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="D16:D28"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="E16:E28"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="D2:D8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1303,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,7 +1279,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
+          <t>AMT_ZF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1303,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1526,7 +1377,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
+          <t>AMT_ZF</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1401,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1624,7 +1475,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
+          <t>AMT_ZF</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1722,7 +1573,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
+          <t>AMT_ZF</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1597,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1815,553 +1666,667 @@
     <row r="19">
       <c r="H19" t="inlineStr">
         <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeStopStatus</t>
+          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>TRUCK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="H20" t="inlineStr">
         <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeStopStatus</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="H21" t="inlineStr">
         <is>
+          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>AMT_ZF, ATM_ZF</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="H22" t="inlineStr">
+        <is>
           <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>D’</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
+    <row r="23">
+      <c r="F23" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeSpanner.Stat</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>0x1</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>IMG_TMFailureModeStop_stat</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>BLINK2(ON,OFF)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Input_TMFailureModeStopStatus == ON</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeStopStatus</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.Stat</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0x2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
+          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>AMT_ZF, ATM_ZF</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.BlinkValueA</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0x2</t>
+          <t>TRUCK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="H25" t="inlineStr">
         <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeStopStatus</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.Stat</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>AMT_ZF, ATM_ZF</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.BlinkValueA</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" t="inlineStr">
+        <is>
           <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>D’</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.BlinkValueB</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>0x1</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
+    <row r="28">
+      <c r="F28" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>SFC.Transmission_Warning_CV.Constant.TMFailureModeStop.Stat</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>0x1</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>IMG_TMHighTemperature_stat</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Input_TMHighTemperatureStatus == ON</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Vehicle.CV.Transmission_Warning_CV.Input_TMHighTemperatureStatus</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>SFC.Transmission_Warning_CV.Constant.TMHighTemperature.Stat</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>0x2</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="H28" t="inlineStr">
+    <row r="31">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>AMT_ZF, ATM_ZF</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>D’</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMHighTemperature.Stat</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0x1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>IMG_TMReleaseAccPedal_stat</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Input_TMReleaseAccPedalStatus == ON</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMReleaseAccPedalStatus</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMReleaseAccPedal.Stat</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0x2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="H32" t="inlineStr">
         <is>
+          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>D’</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMHighTemperature.Stat</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IMG_TMReleaseAccPedal_stat</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Input_TMReleaseAccPedalStatus == ON</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMReleaseAccPedalStatus</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMReleaseAccPedal.Stat</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="H35" t="inlineStr">
+        <is>
           <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>AMT_ZF, ATM_ZF</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>D’</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMReleaseAccPedal.Stat</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0x1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>IMG_TMRANGEInhibit_stat</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Input_ATMRangeInhibitStatus == ON &amp;&amp; Input_ShiftInhibitReasonStatus == OFF &amp;&amp; Inter_ConfigTMType == ATM_ALLISON</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Vehicle.CV.Transmission_Warning_CV.Input_ATMRangeInhibitStatus</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>SFC.Transmission_Warning_CV.Constant.TMRangeInhibit.Stat</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0x2</t>
+          <t>AMT_ZF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="H36" t="inlineStr">
         <is>
+          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>D’</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMReleaseAccPedal.Stat</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IMG_TMRANGEInhibit_stat</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Input_ATMRangeInhibitStatus == ON &amp;&amp; Input_ShiftInhibitReasonStatus == OFF &amp;&amp; Inter_ConfigTMType == ATM_ALLISON</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_ATMRangeInhibitStatus</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SFC.Transmission_Warning_CV.Constant.TMRangeInhibit.Stat</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Vehicle.CV.Transmission_Warning_CV.Input_ShiftInhibitReasonStatus</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="H37" t="inlineStr">
+    <row r="40">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>ATM_ALLISON</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="H38" t="inlineStr">
+    <row r="41">
+      <c r="H41" t="inlineStr">
         <is>
           <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>D’</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Input_LeverPosUnsuitStatus == ON &amp;&amp; Input_TMFailureModeSpannerStatus == OFF &amp;&amp; Input_TMFailureModeStopStatus == OFF &amp;&amp; Inter_ConfigTMType == ATM_ZF &amp;&amp; Inter_ConfigVehicleTypeCV == TRUCK</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_LeverPosUnsuitStatus</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeSpannerStatus</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Vehicle.CV.Transmission_Warning_CV.Input_TMFailureModeStopStatus</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Vehicle.System.Undefined.Inter_ConfigTMType</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ATM_ZF</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Vehicle.System.Undefined.Inter_ConfigVehicleTypeCV</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SFC.Private.IGNElapsed.ElapsedOn0ms</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>D’</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>SFC.Transmission_Warning_CV.Constant.TMRangeInhibit.Stat</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>0x1</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="64">
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="C18:C23"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="G38:G41"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G42:G47"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="D24:D28"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C24:C28"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C38:C48"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D38:D48"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B18:B22"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F38:F47"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E38:E48"/>
+    <mergeCell ref="F18:F22"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D10:D13"/>
   </mergeCells>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2708,7 +2673,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2954,7 +2919,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
